--- a/biology/Botanique/Rhizochromulinaceae/Rhizochromulinaceae.xlsx
+++ b/biology/Botanique/Rhizochromulinaceae/Rhizochromulinaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Rhizochromulinaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Dictyochophyceae et de l’ordre des Rhizochromulinales[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Rhizochromulinaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Dictyochophyceae et de l’ordre des Rhizochromulinales.
 Le Rhizochromulina est un organisme marin, qui peut vivre dans les mares supralittorales en Méditerranée.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Rhizochromulina,  dérivé du grec ρίζα / rhiza, racine, et χρώμα / chróma, couleur.
 </t>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Rhizochromulina se présente sous la forme d'une cellule amiboïdes solitaire, avec de nombreux filipodes fins et perlés, ayant un chloroplaste muni d'un pyrénoïde, mais dépourvu de stigmate. Sa reproduction s'effectue par division dans des essaims dont le flagelle est poilu ; le flagelle lisse est complètement réduit de sorte qu'il ne reste que le corps basal[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Rhizochromulina se présente sous la forme d'une cellule amiboïdes solitaire, avec de nombreux filipodes fins et perlés, ayant un chloroplaste muni d'un pyrénoïde, mais dépourvu de stigmate. Sa reproduction s'effectue par division dans des essaims dont le flagelle est poilu ; le flagelle lisse est complètement réduit de sorte qu'il ne reste que le corps basal.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (14 février 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (14 février 2022) :
 Rhizochromulina D.J.Hibberd &amp; Chrétiennot-Dinet, 1979</t>
         </is>
       </c>
